--- a/Output/Linux_2vCPU_Dimension_Cost_Curves.xlsx
+++ b/Output/Linux_2vCPU_Dimension_Cost_Curves.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\VMware\TCO_Calculator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\VMware\TCO_Calculator\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73CEE1C-1A34-489B-9CFA-09027F0869CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0253AE-7FAC-4A88-A162-9ED5549A3D8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -842,7 +842,7 @@
   <dimension ref="A1:AO16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="X27" sqref="X27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2851,6 +2851,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AO16">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>